--- a/CR DATA/G L PURAM - CR DATA.xlsx
+++ b/CR DATA/G L PURAM - CR DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\CR DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3ED50-0C0E-477A-9165-7B3EAD2C71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A108B0-46EC-4AFE-A5F7-04A2A5316E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
-    <pivotCache cacheId="7" r:id="rId11"/>
-    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="782">
   <si>
     <t>id</t>
   </si>
@@ -2341,6 +2341,66 @@
   </si>
   <si>
     <t>MPPS GORADA</t>
+  </si>
+  <si>
+    <t>GPS(TW) THAMBAMGUDA</t>
+  </si>
+  <si>
+    <t>MPPS GORATI</t>
+  </si>
+  <si>
+    <t>28120202401</t>
+  </si>
+  <si>
+    <t>28120203403</t>
+  </si>
+  <si>
+    <t>MPPS PUTTAGUDA</t>
+  </si>
+  <si>
+    <t>28120207101</t>
+  </si>
+  <si>
+    <t>GPS P JAMMUVALASA</t>
+  </si>
+  <si>
+    <t>28120207103</t>
+  </si>
+  <si>
+    <t>28120207202</t>
+  </si>
+  <si>
+    <t>MPPS DEPPIGUDA</t>
+  </si>
+  <si>
+    <t>28120207203</t>
+  </si>
+  <si>
+    <t>GPS(TW) PILLIGUDA</t>
+  </si>
+  <si>
+    <t>28120207301</t>
+  </si>
+  <si>
+    <t>GPS(TW) JAPAI</t>
+  </si>
+  <si>
+    <t>MPPS KALLITI</t>
+  </si>
+  <si>
+    <t>GPS RELLA</t>
+  </si>
+  <si>
+    <t>GPS KOTHAGUDA</t>
+  </si>
+  <si>
+    <t>GPS(TW) CHAPPAGUDA</t>
+  </si>
+  <si>
+    <t>GPS(TW)  VADABAI</t>
+  </si>
+  <si>
+    <t>MPPS MALLUGUDA</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2411,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2412,13 +2472,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2452,7 +2505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2548,11 +2601,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2699,6 +2765,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2708,17 +2777,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21916,7 +21978,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45003.442595138891" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="36" xr:uid="{E1EE3340-D956-4FEC-BCD0-9E319F1A98BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:F20" sheet="Sheet1"/>
+    <worksheetSource ref="B3:F6" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="S.NO" numFmtId="0">
@@ -23668,7 +23730,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{750697FE-1481-4205-9AD0-D649C2828169}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{750697FE-1481-4205-9AD0-D649C2828169}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B4:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -30752,7 +30814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{385913EA-E469-4CED-AD46-03573AB251A4}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{385913EA-E469-4CED-AD46-03573AB251A4}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="S3:AA31" firstHeaderRow="1" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -32358,7 +32420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{778D4B28-EECD-479A-9A88-08B90424776E}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{778D4B28-EECD-479A-9A88-08B90424776E}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B3:F25" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -34681,7 +34743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{506B4A79-4903-41AF-84F7-12700EB5C33A}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CLUSTER">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{506B4A79-4903-41AF-84F7-12700EB5C33A}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CLUSTER">
   <location ref="C3:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -35158,42 +35220,42 @@
   <sheetData>
     <row r="1" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="K2" s="59" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="K2" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="S2" s="59" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="S2" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
     </row>
     <row r="3" spans="2:29" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="S3" s="24" t="s">
         <v>590</v>
       </c>
@@ -37557,13 +37619,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:6" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -42479,11 +42541,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
@@ -42612,10 +42674,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DFC418-7852-46C9-A760-B7ACC1CAF08A}">
-  <dimension ref="B2:P28"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42630,25 +42692,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>753</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="58" t="s">
         <v>750</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>751</v>
       </c>
       <c r="F3" s="56" t="s">
@@ -42659,18 +42721,18 @@
       <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="str">
+      <c r="C4" s="63" t="str">
         <f>IFERROR(VLOOKUP(D4,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D4" s="62">
-        <v>28120203101</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>737</v>
-      </c>
-      <c r="F4" s="49">
-        <v>5</v>
+        <v>GTWAS BHADRAGIRI</v>
+      </c>
+      <c r="D4" s="51">
+        <v>28120207203</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
       </c>
       <c r="N4" s="6">
         <v>28120200402</v>
@@ -42686,17 +42748,17 @@
       <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="61" t="str">
+      <c r="C5" s="63" t="str">
         <f>IFERROR(VLOOKUP(D5,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D5" s="62">
-        <v>28120203601</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>739</v>
-      </c>
-      <c r="F5" s="49">
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D5" s="51">
+        <v>28120201702</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="N5" s="6">
@@ -42709,21 +42771,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="61" t="str">
+      <c r="C6" s="63" t="str">
         <f>IFERROR(VLOOKUP(D6,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D6" s="4">
-        <v>28120209501</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D6" s="51">
+        <v>28120200403</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="F6" s="64">
+        <v>527</v>
+      </c>
+      <c r="F6" s="19">
         <v>2</v>
       </c>
       <c r="N6" s="6">
@@ -42740,15 +42802,15 @@
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="61" t="str">
+      <c r="C7" s="63" t="str">
         <f>IFERROR(VLOOKUP(D7,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D7" s="4">
-        <v>28120210001</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D7" s="51">
+        <v>28120204901</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="F7" s="19">
         <v>2</v>
@@ -42767,17 +42829,17 @@
       <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" s="61" t="str">
+      <c r="C8" s="63" t="str">
         <f>IFERROR(VLOOKUP(D8,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D8" s="62">
-        <v>28120204601</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>760</v>
-      </c>
-      <c r="F8" s="49">
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D8" s="51">
+        <v>28120200401</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F8" s="19">
         <v>1</v>
       </c>
       <c r="N8" s="6">
@@ -42794,18 +42856,18 @@
       <c r="B9" s="49">
         <v>6</v>
       </c>
-      <c r="C9" s="61" t="str">
+      <c r="C9" s="63" t="str">
         <f>IFERROR(VLOOKUP(D9,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D9" s="62">
-        <v>28120207302</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>744</v>
-      </c>
-      <c r="F9" s="49">
-        <v>4</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D9" s="51">
+        <v>28120200502</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
       </c>
       <c r="N9" s="6">
         <v>28120203401</v>
@@ -42821,18 +42883,18 @@
       <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" s="61" t="str">
+      <c r="C10" s="63" t="str">
         <f>IFERROR(VLOOKUP(D10,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D10" s="62">
-        <v>28120203401</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>759</v>
-      </c>
-      <c r="F10" s="49">
-        <v>2</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D10" s="51">
+        <v>28120202201</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
       </c>
       <c r="N10" s="6">
         <v>28120203501</v>
@@ -42848,17 +42910,17 @@
       <c r="B11" s="49">
         <v>8</v>
       </c>
-      <c r="C11" s="61" t="str">
+      <c r="C11" s="63" t="str">
         <f>IFERROR(VLOOKUP(D11,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D11" s="62">
-        <v>28120207301</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>743</v>
-      </c>
-      <c r="F11" s="49">
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D11" s="51">
+        <v>28120201501</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F11" s="19">
         <v>2</v>
       </c>
       <c r="N11" s="6">
@@ -42875,17 +42937,17 @@
       <c r="B12" s="49">
         <v>9</v>
       </c>
-      <c r="C12" s="61" t="str">
+      <c r="C12" s="63" t="str">
         <f>IFERROR(VLOOKUP(D12,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D12" s="62">
-        <v>28120203501</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="F12" s="49">
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D12" s="51">
+        <v>28120201801</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="N12" s="6">
@@ -42902,18 +42964,18 @@
       <c r="B13" s="49">
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="str">
+      <c r="C13" s="63" t="str">
         <f>IFERROR(VLOOKUP(D13,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D13" s="4">
-        <v>28120211301</v>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D13" s="51">
+        <v>28120204401</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="F13" s="19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N13" s="6">
         <v>28120204601</v>
@@ -42926,21 +42988,9 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <v>11</v>
-      </c>
-      <c r="C14" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D14,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D14" s="62">
-        <v>28120205701</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>741</v>
-      </c>
-      <c r="F14" s="49">
-        <v>5</v>
+      <c r="F14" s="57">
+        <f>SUM(F4:F13)</f>
+        <v>16</v>
       </c>
       <c r="N14" s="6">
         <v>28120205701</v>
@@ -42953,22 +43003,6 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
-        <v>12</v>
-      </c>
-      <c r="C15" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D15,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D15" s="62">
-        <v>28120208803</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>745</v>
-      </c>
-      <c r="F15" s="49">
-        <v>4</v>
-      </c>
       <c r="N15" s="6">
         <v>28120205801</v>
       </c>
@@ -42980,22 +43014,6 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
-        <v>13</v>
-      </c>
-      <c r="C16" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D16,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D16" s="62">
-        <v>28120209302</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>746</v>
-      </c>
-      <c r="F16" s="49">
-        <v>4</v>
-      </c>
       <c r="N16" s="6">
         <v>28120207301</v>
       </c>
@@ -43006,23 +43024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="49">
-        <v>14</v>
-      </c>
-      <c r="C17" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D17,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D17" s="62">
-        <v>28120205801</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>742</v>
-      </c>
-      <c r="F17" s="49">
-        <v>1</v>
-      </c>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N17" s="6">
         <v>28120207302</v>
       </c>
@@ -43033,23 +43035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
-        <v>15</v>
-      </c>
-      <c r="C18" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D18,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D18" s="4">
-        <v>28120209701</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N18" s="6">
         <v>28120208803</v>
       </c>
@@ -43060,23 +43046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
-        <v>16</v>
-      </c>
-      <c r="C19" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D19,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D19" s="62">
-        <v>28120200901</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" s="49">
-        <v>3</v>
-      </c>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N19" s="6">
         <v>28120209302</v>
       </c>
@@ -43087,23 +43057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
-        <v>17</v>
-      </c>
-      <c r="C20" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D20,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D20" s="62">
-        <v>28120200402</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>736</v>
-      </c>
-      <c r="F20" s="49">
-        <v>1</v>
-      </c>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N20" s="6">
         <v>28120209501</v>
       </c>
@@ -43114,23 +43068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
-        <v>18</v>
-      </c>
-      <c r="C21" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D21,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D21" s="62">
-        <v>28120201204</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>481</v>
-      </c>
-      <c r="F21" s="49">
-        <v>1</v>
-      </c>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N21" s="6">
         <v>28120209701</v>
       </c>
@@ -43141,23 +43079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="49">
-        <v>19</v>
-      </c>
-      <c r="C22" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D22,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D22" s="62">
-        <v>28120203301</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>758</v>
-      </c>
-      <c r="F22" s="49">
-        <v>1</v>
-      </c>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N22" s="6">
         <v>28120210001</v>
       </c>
@@ -43168,23 +43090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="49">
-        <v>20</v>
-      </c>
-      <c r="C23" s="61" t="str">
-        <f>IFERROR(VLOOKUP(D23,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D23" s="62">
-        <v>28120203702</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>740</v>
-      </c>
-      <c r="F23" s="49">
-        <v>1</v>
-      </c>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N23" s="6">
         <v>28120211301</v>
       </c>
@@ -43195,29 +43101,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="57">
-        <f>SUM(F4:F23)</f>
-        <v>53</v>
-      </c>
+    <row r="24" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N28" s="6"/>
+    <row r="27" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="O27" t="s">
+        <v>763</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N28" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="O28" t="s">
+        <v>766</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>767</v>
+      </c>
+      <c r="O29" t="s">
+        <v>768</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>769</v>
+      </c>
+      <c r="O30" t="s">
+        <v>762</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>770</v>
+      </c>
+      <c r="O31" t="s">
+        <v>771</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>772</v>
+      </c>
+      <c r="O32" t="s">
+        <v>773</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>774</v>
+      </c>
+      <c r="O33" t="s">
+        <v>743</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F23">
-    <sortCondition ref="C4:C23"/>
-    <sortCondition descending="1" ref="F4:F23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F13">
+    <sortCondition ref="C4:C13"/>
+    <sortCondition descending="1" ref="F4:F13"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>

--- a/CR DATA/G L PURAM - CR DATA.xlsx
+++ b/CR DATA/G L PURAM - CR DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\CR DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A108B0-46EC-4AFE-A5F7-04A2A5316E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD655F-589D-4F89-891A-290E9FB49E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="809">
   <si>
     <t>id</t>
   </si>
@@ -2385,22 +2385,103 @@
     <t>GPS(TW) JAPAI</t>
   </si>
   <si>
-    <t>MPPS KALLITI</t>
-  </si>
-  <si>
-    <t>GPS RELLA</t>
-  </si>
-  <si>
     <t>GPS KOTHAGUDA</t>
   </si>
   <si>
-    <t>GPS(TW) CHAPPAGUDA</t>
-  </si>
-  <si>
-    <t>GPS(TW)  VADABAI</t>
-  </si>
-  <si>
-    <t>MPPS MALLUGUDA</t>
+    <t>28120200401</t>
+  </si>
+  <si>
+    <t>28120201301</t>
+  </si>
+  <si>
+    <t>GPS(TW) KUMBAYAGUDA</t>
+  </si>
+  <si>
+    <t>28120201302</t>
+  </si>
+  <si>
+    <t>GPS(TW) NONDRUKONA</t>
+  </si>
+  <si>
+    <t>28120201801</t>
+  </si>
+  <si>
+    <t>28120202701</t>
+  </si>
+  <si>
+    <t>GPS(TW)  VAMASI</t>
+  </si>
+  <si>
+    <t>28120203701</t>
+  </si>
+  <si>
+    <t>MPPS KANNAYYAGUDA</t>
+  </si>
+  <si>
+    <t>28120204201</t>
+  </si>
+  <si>
+    <t>GPS(TW) LAPPITI</t>
+  </si>
+  <si>
+    <t>28120205201</t>
+  </si>
+  <si>
+    <t>28120206001</t>
+  </si>
+  <si>
+    <t>28120206401</t>
+  </si>
+  <si>
+    <t>GPS(TW) MULAJAMMU</t>
+  </si>
+  <si>
+    <t>28120207601</t>
+  </si>
+  <si>
+    <t>MPPS GADDI COL GLPURAM</t>
+  </si>
+  <si>
+    <t>28120208301</t>
+  </si>
+  <si>
+    <t>GPS(TW)  CHINARAVIKONA</t>
+  </si>
+  <si>
+    <t>28120208701</t>
+  </si>
+  <si>
+    <t>28120209501</t>
+  </si>
+  <si>
+    <t>28120209901</t>
+  </si>
+  <si>
+    <t>GPS VALLADA</t>
+  </si>
+  <si>
+    <t>28120212201</t>
+  </si>
+  <si>
+    <t>MPPS BELLIDI</t>
+  </si>
+  <si>
+    <t>28120212203</t>
+  </si>
+  <si>
+    <t>GPS BODLAGUDA</t>
+  </si>
+  <si>
+    <t>28120212301</t>
+  </si>
+  <si>
+    <t>MPPS CHINTALAPADU</t>
+  </si>
+  <si>
+    <t>28120212302</t>
+  </si>
+  <si>
+    <t>28120212303</t>
   </si>
 </sst>
 </file>
@@ -2768,6 +2849,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2780,7 +2862,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35220,42 +35301,42 @@
   <sheetData>
     <row r="1" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>639</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>586</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="S2" s="60" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="S2" s="61" t="s">
         <v>592</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
     </row>
     <row r="3" spans="2:29" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="S3" s="24" t="s">
         <v>590</v>
       </c>
@@ -37619,13 +37700,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:6" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -42541,11 +42622,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
@@ -42674,10 +42755,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DFC418-7852-46C9-A760-B7ACC1CAF08A}">
-  <dimension ref="B2:P33"/>
+  <dimension ref="B2:P60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42692,13 +42773,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>753</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="58" t="s">
@@ -42721,18 +42802,18 @@
       <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D4,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+      <c r="C4" s="59" t="str">
+        <f t="shared" ref="C4:C26" si="0">IFERROR(VLOOKUP(D4,SCHOOLS,2,FALSE),"")</f>
+        <v>GTWAS DUDDUKHALLU</v>
       </c>
       <c r="D4" s="51">
-        <v>28120207203</v>
+        <v>28120201302</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="F4" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="6">
         <v>28120200402</v>
@@ -42748,18 +42829,18 @@
       <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D5,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C5" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D5" s="51">
-        <v>28120201702</v>
+        <v>28120212303</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="F5" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="6">
         <v>28120200901</v>
@@ -42775,18 +42856,18 @@
       <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D6,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C6" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAHSGIRLS REGIDI</v>
       </c>
       <c r="D6" s="51">
-        <v>28120200403</v>
+        <v>28120206001</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="F6" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="6">
         <v>28120201204</v>
@@ -42802,18 +42883,18 @@
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D7,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C7" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D7" s="51">
-        <v>28120204901</v>
+        <v>28120207101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F7" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="6">
         <v>28120203101</v>
@@ -42829,18 +42910,18 @@
       <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D8,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C8" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAHSGIRLS REGIDI</v>
       </c>
       <c r="D8" s="51">
-        <v>28120200401</v>
+        <v>28120208301</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="F8" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="6">
         <v>28120203301</v>
@@ -42856,18 +42937,18 @@
       <c r="B9" s="49">
         <v>6</v>
       </c>
-      <c r="C9" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D9,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C9" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TIKKABAI</v>
       </c>
       <c r="D9" s="51">
-        <v>28120200502</v>
+        <v>28120208701</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>776</v>
+        <v>537</v>
       </c>
       <c r="F9" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="6">
         <v>28120203401</v>
@@ -42883,18 +42964,18 @@
       <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D10,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+      <c r="C10" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D10" s="51">
-        <v>28120202201</v>
+        <v>28120212203</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="F10" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="6">
         <v>28120203501</v>
@@ -42910,18 +42991,18 @@
       <c r="B11" s="49">
         <v>8</v>
       </c>
-      <c r="C11" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D11,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
+      <c r="C11" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D11" s="51">
-        <v>28120201501</v>
+        <v>28120212302</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>777</v>
+        <v>482</v>
       </c>
       <c r="F11" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="6">
         <v>28120203601</v>
@@ -42937,18 +43018,18 @@
       <c r="B12" s="49">
         <v>9</v>
       </c>
-      <c r="C12" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D12,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
+      <c r="C12" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS KEDARIPURAM COL</v>
       </c>
       <c r="D12" s="51">
-        <v>28120201801</v>
+        <v>28120200401</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F12" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="6">
         <v>28120203702</v>
@@ -42964,18 +43045,18 @@
       <c r="B13" s="49">
         <v>10</v>
       </c>
-      <c r="C13" s="63" t="str">
-        <f>IFERROR(VLOOKUP(D13,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
+      <c r="C13" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS KEDARIPURAM COL</v>
       </c>
       <c r="D13" s="51">
-        <v>28120204401</v>
+        <v>28120201301</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F13" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="6">
         <v>28120204601</v>
@@ -42988,9 +43069,21 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="57">
-        <f>SUM(F4:F13)</f>
-        <v>16</v>
+      <c r="B14" s="49">
+        <v>11</v>
+      </c>
+      <c r="C14" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D14" s="51">
+        <v>28120207103</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
       </c>
       <c r="N14" s="6">
         <v>28120205701</v>
@@ -43003,6 +43096,22 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="49">
+        <v>12</v>
+      </c>
+      <c r="C15" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D15" s="51">
+        <v>28120212201</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
       <c r="N15" s="6">
         <v>28120205801</v>
       </c>
@@ -43014,6 +43123,22 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="49">
+        <v>13</v>
+      </c>
+      <c r="C16" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D16" s="51">
+        <v>28120201801</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
       <c r="N16" s="6">
         <v>28120207301</v>
       </c>
@@ -43024,7 +43149,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="49">
+        <v>14</v>
+      </c>
+      <c r="C17" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D17" s="51">
+        <v>28120202401</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
       <c r="N17" s="6">
         <v>28120207302</v>
       </c>
@@ -43035,7 +43176,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>15</v>
+      </c>
+      <c r="C18" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D18" s="51">
+        <v>28120202701</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
       <c r="N18" s="6">
         <v>28120208803</v>
       </c>
@@ -43046,7 +43203,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="49">
+        <v>16</v>
+      </c>
+      <c r="C19" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D19" s="51">
+        <v>28120203701</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
       <c r="N19" s="6">
         <v>28120209302</v>
       </c>
@@ -43057,7 +43230,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>17</v>
+      </c>
+      <c r="C20" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D20" s="51">
+        <v>28120204201</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
       <c r="N20" s="6">
         <v>28120209501</v>
       </c>
@@ -43068,7 +43257,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="49">
+        <v>18</v>
+      </c>
+      <c r="C21" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D21" s="51">
+        <v>28120205201</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
       <c r="N21" s="6">
         <v>28120209701</v>
       </c>
@@ -43079,7 +43284,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="49">
+        <v>19</v>
+      </c>
+      <c r="C22" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS TADIKONDA</v>
+      </c>
+      <c r="D22" s="51">
+        <v>28120206401</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
       <c r="N22" s="6">
         <v>28120210001</v>
       </c>
@@ -43090,7 +43311,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="49">
+        <v>20</v>
+      </c>
+      <c r="C23" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>ZPHS GLPURAM</v>
+      </c>
+      <c r="D23" s="51">
+        <v>28120207601</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
       <c r="N23" s="6">
         <v>28120211301</v>
       </c>
@@ -43101,16 +43338,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="49">
+        <v>21</v>
+      </c>
+      <c r="C24" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAHSGIRLS REGIDI</v>
+      </c>
+      <c r="D24" s="51">
+        <v>28120209501</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="49">
+        <v>22</v>
+      </c>
+      <c r="C25" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D25" s="51">
+        <v>28120209901</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="49">
+        <v>23</v>
+      </c>
+      <c r="C26" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D26" s="51">
+        <v>28120212301</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="57">
+        <f>SUM(F4:F26)</f>
+        <v>48</v>
+      </c>
       <c r="N27" s="6" t="s">
         <v>764</v>
       </c>
@@ -43121,7 +43410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N28" s="6" t="s">
         <v>765</v>
       </c>
@@ -43132,7 +43421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N29" t="s">
         <v>767</v>
       </c>
@@ -43143,7 +43432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
         <v>769</v>
       </c>
@@ -43154,7 +43443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>770</v>
       </c>
@@ -43165,7 +43454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>772</v>
       </c>
@@ -43176,7 +43465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>774</v>
       </c>
@@ -43187,10 +43476,262 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>777</v>
+      </c>
+      <c r="E38" t="s">
+        <v>775</v>
+      </c>
+      <c r="F38" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>778</v>
+      </c>
+      <c r="E39" t="s">
+        <v>779</v>
+      </c>
+      <c r="F39" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>780</v>
+      </c>
+      <c r="E40" t="s">
+        <v>781</v>
+      </c>
+      <c r="F40" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>782</v>
+      </c>
+      <c r="E41" t="s">
+        <v>776</v>
+      </c>
+      <c r="F41" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" t="s">
+        <v>763</v>
+      </c>
+      <c r="F42" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>783</v>
+      </c>
+      <c r="E43" t="s">
+        <v>784</v>
+      </c>
+      <c r="F43" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>785</v>
+      </c>
+      <c r="E44" t="s">
+        <v>786</v>
+      </c>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>787</v>
+      </c>
+      <c r="E45" t="s">
+        <v>788</v>
+      </c>
+      <c r="F45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>789</v>
+      </c>
+      <c r="E46" t="s">
+        <v>555</v>
+      </c>
+      <c r="F46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" t="s">
+        <v>483</v>
+      </c>
+      <c r="F47" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>791</v>
+      </c>
+      <c r="E48" t="s">
+        <v>792</v>
+      </c>
+      <c r="F48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>767</v>
+      </c>
+      <c r="E49" t="s">
+        <v>768</v>
+      </c>
+      <c r="F49" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>769</v>
+      </c>
+      <c r="E50" t="s">
+        <v>762</v>
+      </c>
+      <c r="F50" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>793</v>
+      </c>
+      <c r="E51" t="s">
+        <v>794</v>
+      </c>
+      <c r="F51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>795</v>
+      </c>
+      <c r="E52" t="s">
+        <v>796</v>
+      </c>
+      <c r="F52" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>797</v>
+      </c>
+      <c r="E53" t="s">
+        <v>537</v>
+      </c>
+      <c r="F53" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>798</v>
+      </c>
+      <c r="E54" t="s">
+        <v>747</v>
+      </c>
+      <c r="F54" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>799</v>
+      </c>
+      <c r="E55" t="s">
+        <v>800</v>
+      </c>
+      <c r="F55" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>801</v>
+      </c>
+      <c r="E56" t="s">
+        <v>802</v>
+      </c>
+      <c r="F56" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>803</v>
+      </c>
+      <c r="E57" t="s">
+        <v>804</v>
+      </c>
+      <c r="F57" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>805</v>
+      </c>
+      <c r="E58" t="s">
+        <v>806</v>
+      </c>
+      <c r="F58" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>807</v>
+      </c>
+      <c r="E59" t="s">
+        <v>482</v>
+      </c>
+      <c r="F59" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>808</v>
+      </c>
+      <c r="E60" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" s="50">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F13">
-    <sortCondition ref="C4:C13"/>
-    <sortCondition descending="1" ref="F4:F13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:F26">
+    <sortCondition descending="1" ref="F4:F26"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>

--- a/CR DATA/G L PURAM - CR DATA.xlsx
+++ b/CR DATA/G L PURAM - CR DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\CR DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5700E2D1-84C6-4201-ABD3-FBF3F948D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B4A13-1ED4-446A-8901-6F71C6D4A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="19080" windowHeight="15480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -29,16 +29,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$4:$F$46</definedName>
     <definedName name="crdata">'CR ID'!$A$2:$C$1048576</definedName>
     <definedName name="JVKDATA">'[1]R1.7 REPORT'!$B$8:$V$177</definedName>
-    <definedName name="pending">Sheet1!$N$4:$P$28</definedName>
+    <definedName name="pending">Sheet1!#REF!</definedName>
     <definedName name="PROGRESS">Sheet2!$K$5:$P$1048576</definedName>
     <definedName name="SCHOOLS">SCHOOLS!$A$1:$C$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
-    <pivotCache cacheId="7" r:id="rId11"/>
-    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="754">
   <si>
     <t>id</t>
   </si>
@@ -2265,7 +2265,37 @@
     <t>CR PENDING AT HM/EA/WEA/MEO LOGINS AS ON 02-02-2023 AT 09:30 AM</t>
   </si>
   <si>
-    <t>GPS(TW) TIKKABAI</t>
+    <t>UDISE CODE</t>
+  </si>
+  <si>
+    <t>NAME OF THE SCHOOL</t>
+  </si>
+  <si>
+    <t>PENDENCY</t>
+  </si>
+  <si>
+    <t>CR PENDENCY AS OF NOW</t>
+  </si>
+  <si>
+    <t>GTWAS BHADRAGIRI</t>
+  </si>
+  <si>
+    <t>GTWAS TADIKONDA</t>
+  </si>
+  <si>
+    <t>TOTAL PENDENCY</t>
+  </si>
+  <si>
+    <t>CLUSTER WISE CR PENDENCY AS OF NOW</t>
+  </si>
+  <si>
+    <t>GPS CH BINNIDI</t>
+  </si>
+  <si>
+    <t>GPS GADIVANKADHARA</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
   </si>
   <si>
     <t>GPS(TW)  BATUGUDABA</t>
@@ -2274,223 +2304,16 @@
     <t>MPPS ADDAMGUDA</t>
   </si>
   <si>
+    <t>GPS TW MURADA</t>
+  </si>
+  <si>
     <t>GPS MULABINNIDI</t>
   </si>
   <si>
-    <t>GPS (TW) GAJULAGUDA</t>
-  </si>
-  <si>
-    <t>GPS (TW) KITHALAMBA</t>
-  </si>
-  <si>
-    <t>GPS(TW)  GULLALANKA</t>
-  </si>
-  <si>
-    <t>MPPS KALIGOTTU</t>
-  </si>
-  <si>
-    <t>GPS(TW) S KALIGOTTU</t>
-  </si>
-  <si>
-    <t>GPS(TW ) SEEMALAVALASA</t>
-  </si>
-  <si>
-    <t>GPS(TW)  CHORUPALLE</t>
-  </si>
-  <si>
-    <t>GPS GEESADA</t>
-  </si>
-  <si>
-    <t>GPS (TW)  KUSA</t>
-  </si>
-  <si>
-    <t>GPS(TW) VANAKABADI</t>
-  </si>
-  <si>
-    <t>UDISE CODE</t>
-  </si>
-  <si>
-    <t>NAME OF THE SCHOOL</t>
-  </si>
-  <si>
-    <t>PENDENCY</t>
-  </si>
-  <si>
-    <t>CR PENDENCY AS OF NOW</t>
-  </si>
-  <si>
-    <t>GTWAS BHADRAGIRI</t>
-  </si>
-  <si>
-    <t>GTWAS TADIKONDA</t>
-  </si>
-  <si>
-    <t>TOTAL PENDENCY</t>
-  </si>
-  <si>
-    <t>CLUSTER WISE CR PENDENCY AS OF NOW</t>
-  </si>
-  <si>
-    <t>GPS(TW) PEDDAGUDA</t>
-  </si>
-  <si>
-    <t>AIDED P S  CHEMUDUGUDA</t>
-  </si>
-  <si>
-    <t>GPS CH BINNIDI</t>
-  </si>
-  <si>
-    <t>MPPS GORADA</t>
-  </si>
-  <si>
-    <t>GPS(TW) THAMBAMGUDA</t>
-  </si>
-  <si>
-    <t>MPPS GORATI</t>
-  </si>
-  <si>
-    <t>28120202401</t>
-  </si>
-  <si>
-    <t>28120203403</t>
-  </si>
-  <si>
-    <t>MPPS PUTTAGUDA</t>
-  </si>
-  <si>
-    <t>28120207101</t>
-  </si>
-  <si>
-    <t>GPS P JAMMUVALASA</t>
-  </si>
-  <si>
-    <t>28120207103</t>
-  </si>
-  <si>
-    <t>28120207202</t>
-  </si>
-  <si>
-    <t>MPPS DEPPIGUDA</t>
-  </si>
-  <si>
-    <t>28120207203</t>
+    <t>GPS MULIGUDA</t>
   </si>
   <si>
     <t>GPS(TW) PILLIGUDA</t>
-  </si>
-  <si>
-    <t>28120207301</t>
-  </si>
-  <si>
-    <t>GPS(TW) JAPAI</t>
-  </si>
-  <si>
-    <t>GPS KOTHAGUDA</t>
-  </si>
-  <si>
-    <t>28120200401</t>
-  </si>
-  <si>
-    <t>28120201301</t>
-  </si>
-  <si>
-    <t>GPS(TW) KUMBAYAGUDA</t>
-  </si>
-  <si>
-    <t>28120201302</t>
-  </si>
-  <si>
-    <t>GPS(TW) NONDRUKONA</t>
-  </si>
-  <si>
-    <t>28120201801</t>
-  </si>
-  <si>
-    <t>28120202701</t>
-  </si>
-  <si>
-    <t>GPS(TW)  VAMASI</t>
-  </si>
-  <si>
-    <t>28120203701</t>
-  </si>
-  <si>
-    <t>MPPS KANNAYYAGUDA</t>
-  </si>
-  <si>
-    <t>28120204201</t>
-  </si>
-  <si>
-    <t>GPS(TW) LAPPITI</t>
-  </si>
-  <si>
-    <t>28120205201</t>
-  </si>
-  <si>
-    <t>28120206001</t>
-  </si>
-  <si>
-    <t>28120206401</t>
-  </si>
-  <si>
-    <t>GPS(TW) MULAJAMMU</t>
-  </si>
-  <si>
-    <t>28120207601</t>
-  </si>
-  <si>
-    <t>MPPS GADDI COL GLPURAM</t>
-  </si>
-  <si>
-    <t>28120208301</t>
-  </si>
-  <si>
-    <t>GPS(TW)  CHINARAVIKONA</t>
-  </si>
-  <si>
-    <t>28120208701</t>
-  </si>
-  <si>
-    <t>28120209501</t>
-  </si>
-  <si>
-    <t>28120209901</t>
-  </si>
-  <si>
-    <t>GPS VALLADA</t>
-  </si>
-  <si>
-    <t>28120212201</t>
-  </si>
-  <si>
-    <t>MPPS BELLIDI</t>
-  </si>
-  <si>
-    <t>28120212203</t>
-  </si>
-  <si>
-    <t>GPS BODLAGUDA</t>
-  </si>
-  <si>
-    <t>28120212301</t>
-  </si>
-  <si>
-    <t>MPPS CHINTALAPADU</t>
-  </si>
-  <si>
-    <t>28120212302</t>
-  </si>
-  <si>
-    <t>28120212303</t>
-  </si>
-  <si>
-    <t>GPS RELLA</t>
-  </si>
-  <si>
-    <t>GPS(TW) DERUGONDA</t>
-  </si>
-  <si>
-    <t>GPS(TW)  VADABAI</t>
   </si>
   <si>
     <t>MPPS DIGUVADERUVADA</t>
@@ -2711,7 +2534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2855,13 +2678,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2872,6 +2695,9 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -22071,7 +21897,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45003.442595138891" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="36" xr:uid="{E1EE3340-D956-4FEC-BCD0-9E319F1A98BC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:F6" sheet="Sheet1"/>
+    <worksheetSource ref="B3:F7" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="S.NO" numFmtId="0">
@@ -23823,7 +23649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{385913EA-E469-4CED-AD46-03573AB251A4}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{385913EA-E469-4CED-AD46-03573AB251A4}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="S3:AA31" firstHeaderRow="1" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25429,7 +25255,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{750697FE-1481-4205-9AD0-D649C2828169}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{750697FE-1481-4205-9AD0-D649C2828169}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B4:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -32513,7 +32339,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{778D4B28-EECD-479A-9A88-08B90424776E}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{778D4B28-EECD-479A-9A88-08B90424776E}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B3:F25" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -34836,7 +34662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{506B4A79-4903-41AF-84F7-12700EB5C33A}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CLUSTER">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{506B4A79-4903-41AF-84F7-12700EB5C33A}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="CLUSTER">
   <location ref="C3:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -42635,7 +42461,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -42648,7 +42474,7 @@
         <v>467</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -42667,7 +42493,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="D5" s="51">
         <v>7</v>
@@ -42722,7 +42548,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D10" s="51">
         <v>10</v>
@@ -42767,10 +42593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DFC418-7852-46C9-A760-B7ACC1CAF08A}">
-  <dimension ref="B2:P48"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42781,764 +42607,228 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="63" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="2:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>750</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>751</v>
+      <c r="D3" s="57" t="s">
+        <v>736</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>737</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D4,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+      <c r="C4" s="58" t="str">
+        <f t="shared" ref="C4:C7" si="0">IFERROR(VLOOKUP(D4,SCHOOLS,2,FALSE),"")</f>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D4" s="51">
-        <v>28120201302</v>
+        <v>28120203501</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
       <c r="F4" s="19">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6">
-        <v>28120200402</v>
-      </c>
-      <c r="O4" t="s">
-        <v>736</v>
-      </c>
-      <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>28120203101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>747</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D5,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
+      <c r="C5" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D5" s="51">
-        <v>28120206401</v>
+        <v>28120203502</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>792</v>
+        <v>749</v>
       </c>
       <c r="F5" s="19">
         <v>3</v>
       </c>
-      <c r="N5" s="6">
-        <v>28120200901</v>
-      </c>
-      <c r="O5" t="s">
-        <v>479</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>28120203501</v>
+      </c>
+      <c r="J5" t="s">
+        <v>748</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D6,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+      <c r="C6" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D6" s="51">
-        <v>28120208301</v>
+        <v>28120205201</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>796</v>
+        <v>555</v>
       </c>
       <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>28120203502</v>
+      </c>
+      <c r="J6" t="s">
+        <v>749</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="N6" s="6">
-        <v>28120201204</v>
-      </c>
-      <c r="O6" t="s">
-        <v>481</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D7,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
+      <c r="C7" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D7" s="51">
-        <v>28120201501</v>
+        <v>28120207203</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>809</v>
+        <v>752</v>
       </c>
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="N7" s="6">
-        <v>28120203101</v>
-      </c>
-      <c r="O7" t="s">
-        <v>737</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
-        <v>5</v>
-      </c>
-      <c r="C8" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D8,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D8" s="51">
-        <v>28120203303</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="I7">
+        <v>28120203601</v>
+      </c>
+      <c r="J7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="N8" s="6">
-        <v>28120203301</v>
-      </c>
-      <c r="O8" t="s">
-        <v>758</v>
-      </c>
-      <c r="P8">
+    </row>
+    <row r="8" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="59">
+        <f>SUM(F4:F7)</f>
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>28120204601</v>
+      </c>
+      <c r="J8" t="s">
+        <v>744</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
-        <v>6</v>
-      </c>
-      <c r="C9" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D9,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D9" s="51">
-        <v>28120204401</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="F9" s="19">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="F9"/>
+      <c r="I9">
+        <v>28120204902</v>
+      </c>
+      <c r="J9" t="s">
+        <v>751</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="N9" s="6">
-        <v>28120203401</v>
-      </c>
-      <c r="O9" t="s">
-        <v>759</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
-        <v>7</v>
-      </c>
-      <c r="C10" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D10,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D10" s="51">
-        <v>28120206001</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F10" s="19">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>28120205201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>555</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>28120206101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>745</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="N10" s="6">
-        <v>28120203501</v>
-      </c>
-      <c r="O10" t="s">
-        <v>738</v>
-      </c>
-      <c r="P10">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>28120207203</v>
+      </c>
+      <c r="J12" t="s">
+        <v>752</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D11,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D11" s="51">
-        <v>28120208401</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F11" s="19">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>28120211201</v>
+      </c>
+      <c r="J13" t="s">
+        <v>753</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="N11" s="6">
-        <v>28120203601</v>
-      </c>
-      <c r="O11" t="s">
-        <v>739</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
-        <v>9</v>
-      </c>
-      <c r="C12" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D12,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D12" s="51">
-        <v>28120209501</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>28120203702</v>
-      </c>
-      <c r="O12" t="s">
-        <v>740</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
-        <v>10</v>
-      </c>
-      <c r="C13" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D13,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D13" s="51">
-        <v>28120209901</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>28120204601</v>
-      </c>
-      <c r="O13" t="s">
-        <v>760</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <v>11</v>
-      </c>
-      <c r="C14" s="59" t="str">
-        <f>IFERROR(VLOOKUP(D14,SCHOOLS,2,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D14" s="51">
-        <v>28120211201</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
-        <v>28120205701</v>
-      </c>
-      <c r="O14" t="s">
-        <v>741</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="57">
-        <f>SUM(F4:F14)</f>
-        <v>19</v>
-      </c>
-      <c r="N15" s="6">
-        <v>28120205801</v>
-      </c>
-      <c r="O15" t="s">
-        <v>742</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="6">
-        <v>28120207301</v>
-      </c>
-      <c r="O16" t="s">
-        <v>743</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N17" s="6">
-        <v>28120207302</v>
-      </c>
-      <c r="O17" t="s">
-        <v>744</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N18" s="6">
-        <v>28120208803</v>
-      </c>
-      <c r="O18" t="s">
-        <v>745</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N19" s="6">
-        <v>28120209302</v>
-      </c>
-      <c r="O19" t="s">
-        <v>746</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N20" s="6">
-        <v>28120209501</v>
-      </c>
-      <c r="O20" t="s">
-        <v>747</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N21" s="6">
-        <v>28120209701</v>
-      </c>
-      <c r="O21" t="s">
-        <v>748</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N22" s="6">
-        <v>28120210001</v>
-      </c>
-      <c r="O22" t="s">
-        <v>761</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="6">
-        <v>28120211301</v>
-      </c>
-      <c r="O23" t="s">
-        <v>749</v>
-      </c>
-      <c r="P23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>777</v>
-      </c>
-      <c r="E26" t="s">
-        <v>775</v>
-      </c>
-      <c r="F26" s="50">
-        <v>2</v>
-      </c>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>778</v>
-      </c>
-      <c r="E27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F27" s="50">
-        <v>2</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="O27" t="s">
-        <v>763</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>780</v>
-      </c>
-      <c r="E28" t="s">
-        <v>781</v>
-      </c>
-      <c r="F28" s="50">
-        <v>5</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="O28" t="s">
-        <v>766</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>782</v>
-      </c>
-      <c r="E29" t="s">
-        <v>776</v>
-      </c>
-      <c r="F29" s="50">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>767</v>
-      </c>
-      <c r="O29" t="s">
-        <v>768</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>764</v>
-      </c>
-      <c r="E30" t="s">
-        <v>763</v>
-      </c>
-      <c r="F30" s="50">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>769</v>
-      </c>
-      <c r="O30" t="s">
-        <v>762</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>783</v>
-      </c>
-      <c r="E31" t="s">
-        <v>784</v>
-      </c>
-      <c r="F31" s="50">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>770</v>
-      </c>
-      <c r="O31" t="s">
-        <v>771</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>785</v>
-      </c>
-      <c r="E32" t="s">
-        <v>786</v>
-      </c>
-      <c r="F32" s="50">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>772</v>
-      </c>
-      <c r="O32" t="s">
-        <v>773</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>787</v>
-      </c>
-      <c r="E33" t="s">
-        <v>788</v>
-      </c>
-      <c r="F33" s="50">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>774</v>
-      </c>
-      <c r="O33" t="s">
-        <v>743</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>789</v>
-      </c>
-      <c r="E34" t="s">
-        <v>555</v>
-      </c>
-      <c r="F34" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>790</v>
-      </c>
-      <c r="E35" t="s">
-        <v>483</v>
-      </c>
-      <c r="F35" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>791</v>
-      </c>
-      <c r="E36" t="s">
-        <v>792</v>
-      </c>
-      <c r="F36" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>767</v>
-      </c>
-      <c r="E37" t="s">
-        <v>768</v>
-      </c>
-      <c r="F37" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>769</v>
-      </c>
-      <c r="E38" t="s">
-        <v>762</v>
-      </c>
-      <c r="F38" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>793</v>
-      </c>
-      <c r="E39" t="s">
-        <v>794</v>
-      </c>
-      <c r="F39" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>795</v>
-      </c>
-      <c r="E40" t="s">
-        <v>796</v>
-      </c>
-      <c r="F40" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>797</v>
-      </c>
-      <c r="E41" t="s">
-        <v>537</v>
-      </c>
-      <c r="F41" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>798</v>
-      </c>
-      <c r="E42" t="s">
-        <v>747</v>
-      </c>
-      <c r="F42" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>799</v>
-      </c>
-      <c r="E43" t="s">
-        <v>800</v>
-      </c>
-      <c r="F43" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>801</v>
-      </c>
-      <c r="E44" t="s">
-        <v>802</v>
-      </c>
-      <c r="F44" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>803</v>
-      </c>
-      <c r="E45" t="s">
-        <v>804</v>
-      </c>
-      <c r="F45" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>805</v>
-      </c>
-      <c r="E46" t="s">
-        <v>806</v>
-      </c>
-      <c r="F46" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>807</v>
-      </c>
-      <c r="E47" t="s">
-        <v>482</v>
-      </c>
-      <c r="F47" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>808</v>
-      </c>
-      <c r="E48" t="s">
-        <v>573</v>
-      </c>
-      <c r="F48" s="50">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F14">
-    <sortCondition descending="1" ref="F4:F14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:F9">
+    <sortCondition descending="1" ref="F8:F9"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
